--- a/StructureDefinition-ext-R5-Measure.gro.pop.aggregateMethod.xlsx
+++ b/StructureDefinition-ext-R5-Measure.gro.pop.aggregateMethod.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Measure.group.population.aggregateMethod` 0..1 `CodeableConcept`
 Following are the generation technical comments:
-Element `Measure.group.population.aggregateMethod` is mapped to FHIR R4 structure `Measure`, but has no target element specified.</t>
+Element `Measure.group.population.aggregateMethod` is will have a context of Measure.group.population based on following the parent source element upwards and mapping to `Measure`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Measure.group.population</t>
   </si>
   <si>
     <t>ID</t>
